--- a/заказы/филиалы и опт/2024/09,24/16,09,24 Ост СЫР филиалы/заказ СЫРЫ от 18,09,24 на 23,09,24.xlsx
+++ b/заказы/филиалы и опт/2024/09,24/16,09,24 Ост СЫР филиалы/заказ СЫРЫ от 18,09,24 на 23,09,24.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\16,09,24 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\09,24\16,09,24 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDEBFEE-943E-4CF0-B379-9822C80A19F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9DC73B-A97E-4AA7-9B7B-85CDC784360A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Мелитополь" sheetId="1" r:id="rId1"/>
@@ -816,7 +816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
@@ -2088,9 +2088,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FA9B08-17E9-4365-A8C5-91CF8D225AA3}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -4100,14 +4100,14 @@
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="14">
-        <f>D29/C29</f>
+        <f t="shared" ref="F29:F36" si="2">D29/C29</f>
         <v>0</v>
       </c>
       <c r="G29" s="4">
         <v>0.1</v>
       </c>
       <c r="H29" s="14">
-        <f>G29*D29</f>
+        <f t="shared" ref="H29:H36" si="3">G29*D29</f>
         <v>0</v>
       </c>
       <c r="I29" s="14"/>
@@ -4125,14 +4125,14 @@
       <c r="D30" s="17"/>
       <c r="E30" s="19"/>
       <c r="F30" s="14">
-        <f>D30/C30</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G30" s="4">
         <v>0.1</v>
       </c>
       <c r="H30" s="14">
-        <f>G30*D30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I30" s="14"/>
@@ -4150,14 +4150,14 @@
       <c r="D31" s="17"/>
       <c r="E31" s="19"/>
       <c r="F31" s="14">
-        <f>D31/C31</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G31" s="4">
         <v>0.1</v>
       </c>
       <c r="H31" s="14">
-        <f>G31*D31</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I31" s="14"/>
@@ -4175,14 +4175,14 @@
       <c r="D32" s="17"/>
       <c r="E32" s="19"/>
       <c r="F32" s="14">
-        <f>D32/C32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G32" s="4">
         <v>0.1</v>
       </c>
       <c r="H32" s="14">
-        <f>G32*D32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I32" s="14"/>
@@ -4200,14 +4200,14 @@
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="14">
-        <f>D33/C33</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G33" s="4">
         <v>0.14000000000000001</v>
       </c>
       <c r="H33" s="14">
-        <f>G33*D33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I33" s="14"/>
@@ -4227,14 +4227,14 @@
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="14">
-        <f>D34/C34</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G34" s="4">
         <v>0.14000000000000001</v>
       </c>
       <c r="H34" s="14">
-        <f>G34*D34</f>
+        <f t="shared" si="3"/>
         <v>11.200000000000001</v>
       </c>
       <c r="I34" s="14"/>
@@ -4254,14 +4254,14 @@
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="14">
-        <f>D35/C35</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="G35" s="4">
         <v>0.18</v>
       </c>
       <c r="H35" s="14">
-        <f>G35*D35</f>
+        <f t="shared" si="3"/>
         <v>28.08</v>
       </c>
       <c r="I35" s="14"/>
@@ -4279,14 +4279,14 @@
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="14">
-        <f>D36/C36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="4">
         <v>0.1</v>
       </c>
       <c r="H36" s="14">
-        <f>G36*D36</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I36" s="14"/>
@@ -4311,7 +4311,7 @@
         <v>2.5</v>
       </c>
       <c r="H37" s="14">
-        <f t="shared" ref="H37:H40" si="2">E37</f>
+        <f t="shared" ref="H37:H40" si="4">E37</f>
         <v>0</v>
       </c>
       <c r="I37" s="22" t="s">
@@ -4338,7 +4338,7 @@
         <v>1.3</v>
       </c>
       <c r="H38" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I38" s="14" t="s">
@@ -4367,7 +4367,7 @@
         <v>3.2</v>
       </c>
       <c r="H39" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>148.5</v>
       </c>
       <c r="I39" s="14" t="s">
@@ -4394,7 +4394,7 @@
         <v>3.2</v>
       </c>
       <c r="H40" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I40" s="14" t="s">
@@ -4416,14 +4416,14 @@
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="14">
-        <f>D41/C41</f>
+        <f t="shared" ref="F41:F47" si="5">D41/C41</f>
         <v>4</v>
       </c>
       <c r="G41" s="4">
         <v>0.4</v>
       </c>
       <c r="H41" s="14">
-        <f>G41*D41</f>
+        <f t="shared" ref="H41:H46" si="6">G41*D41</f>
         <v>12.8</v>
       </c>
       <c r="I41" s="14"/>
@@ -4441,14 +4441,14 @@
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="14">
-        <f>D42/C42</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G42" s="4">
         <v>0.4</v>
       </c>
       <c r="H42" s="14">
-        <f>G42*D42</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I42" s="14"/>
@@ -4468,14 +4468,14 @@
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="14">
-        <f>D43/C43</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="G43" s="4">
         <v>0.18</v>
       </c>
       <c r="H43" s="14">
-        <f>G43*D43</f>
+        <f t="shared" si="6"/>
         <v>20.16</v>
       </c>
       <c r="I43" s="14"/>
@@ -4495,14 +4495,14 @@
       </c>
       <c r="E44" s="19"/>
       <c r="F44" s="14">
-        <f>D44/C44</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="G44" s="4">
         <v>0.18</v>
       </c>
       <c r="H44" s="14">
-        <f>G44*D44</f>
+        <f t="shared" si="6"/>
         <v>14.399999999999999</v>
       </c>
       <c r="I44" s="14"/>
@@ -4522,14 +4522,14 @@
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="14">
-        <f>D45/C45</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="G45" s="4">
         <v>0.18</v>
       </c>
       <c r="H45" s="14">
-        <f>G45*D45</f>
+        <f t="shared" si="6"/>
         <v>14.399999999999999</v>
       </c>
       <c r="I45" s="14"/>
@@ -4549,14 +4549,14 @@
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="14">
-        <f>D46/C46</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G46" s="4">
         <v>0.14000000000000001</v>
       </c>
       <c r="H46" s="14">
-        <f>G46*D46</f>
+        <f t="shared" si="6"/>
         <v>4.4800000000000004</v>
       </c>
       <c r="I46" s="14"/>
@@ -4574,7 +4574,7 @@
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="14">
-        <f>D47/C47</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G47" s="4">
